--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -7,8 +7,11 @@
     <workbookView windowWidth="27945" windowHeight="14055"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SignIn!$A$1:$H$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,33 +29,61 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>WIN</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="微软雅黑"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式：
+VIP等级:道具ID:道具数量,VIP等级:道具ID:道具数量,······
+(VIP等级为空代表VIP等级不影响)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+  <si>
+    <t>签到ID</t>
+  </si>
+  <si>
+    <t>签到日期</t>
+  </si>
+  <si>
+    <t>累计签到天数</t>
+  </si>
+  <si>
+    <t>奖励内容</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>生效时间</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+  </si>
+  <si>
+    <t>签到活动状态</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>签到天数</t>
-  </si>
-  <si>
-    <t>累计签到天数</t>
-  </si>
-  <si>
-    <t>奖励内容</t>
-  </si>
-  <si>
-    <t>生效时间</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>活动状态</t>
-  </si>
-  <si>
     <t>signInDay</t>
   </si>
   <si>
@@ -62,16 +93,16 @@
     <t>rewardType</t>
   </si>
   <si>
+    <t>signInDesc</t>
+  </si>
+  <si>
     <t>startTime</t>
   </si>
   <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>status</t>
   </si>
   <si>
     <t>int</t>
@@ -80,73 +111,109 @@
     <t>string</t>
   </si>
   <si>
-    <t>周一00:00:00</t>
-  </si>
-  <si>
-    <t>周一23:59:59</t>
-  </si>
-  <si>
-    <t>周一签到奖励</t>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>VIP0:1001:100,
+VIP1:1001:200,
+VIP2:1001:200,
+VIP3:1001:300,
+VIP4:1001:300,
+VIP5:1001:400,
+VIP6:1001:400,
+VIP7:1001:500,
+VIP8:1001:500</t>
+  </si>
+  <si>
+    <t>周一签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周一00:00:00</t>
+  </si>
+  <si>
+    <t>每周一23:59:59</t>
   </si>
   <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>周二00:00:00</t>
-  </si>
-  <si>
-    <t>周二23:59:59</t>
-  </si>
-  <si>
-    <t>周二签到奖励</t>
-  </si>
-  <si>
-    <t>周三00:00:00</t>
-  </si>
-  <si>
-    <t>周三23:59:59</t>
-  </si>
-  <si>
-    <t>周三签到奖励</t>
-  </si>
-  <si>
-    <t>周四00:00:00</t>
-  </si>
-  <si>
-    <t>周四23:59:59</t>
-  </si>
-  <si>
-    <t>周四签到奖励</t>
-  </si>
-  <si>
-    <t>周五00:00:00</t>
-  </si>
-  <si>
-    <t>周五23:59:59</t>
-  </si>
-  <si>
-    <t>周五签到奖励</t>
-  </si>
-  <si>
-    <t>周六00:00:00</t>
-  </si>
-  <si>
-    <t>周六23:59:59</t>
-  </si>
-  <si>
-    <t>周六签到奖励</t>
-  </si>
-  <si>
-    <t>周日00:00:00</t>
-  </si>
-  <si>
-    <t>周日23:59:59</t>
-  </si>
-  <si>
-    <t>周日签到奖励</t>
-  </si>
-  <si>
-    <t>累计签到14天领取大奖</t>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>周二签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周二00:00:00</t>
+  </si>
+  <si>
+    <t>每周二23:59:59</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>周三签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周三00:00:00</t>
+  </si>
+  <si>
+    <t>每周三23:59:59</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>周四签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周四00:00:00</t>
+  </si>
+  <si>
+    <t>每周四23:59:59</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
+    <t>周五签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周五00:00:00</t>
+  </si>
+  <si>
+    <t>每周五23:59:59</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>周六签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周六00:00:00</t>
+  </si>
+  <si>
+    <t>每周六23:59:59</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>周日签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>每周日00:00:00</t>
+  </si>
+  <si>
+    <t>每周日23:59:59</t>
+  </si>
+  <si>
+    <t>:1001:1500,
+:6001:3</t>
+  </si>
+  <si>
+    <t>累计签到14天领取领取{0}金币、补签劵{0}张</t>
   </si>
 </sst>
 </file>
@@ -159,7 +226,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,9 +237,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -317,6 +389,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -672,137 +750,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,13 +893,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,19 +1230,20 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="24.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="34.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="18" style="5" customWidth="1"/>
     <col min="10" max="10" width="13" style="5" customWidth="1"/>
@@ -1192,213 +1280,237 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:8">
+    <row r="4" s="4" customFormat="1" ht="148.5" spans="1:8">
       <c r="A4" s="4">
         <v>101</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:8">
+    <row r="5" s="4" customFormat="1" ht="148.5" spans="1:8">
       <c r="A5" s="4">
         <v>102</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:8">
+    <row r="6" s="4" customFormat="1" ht="148.5" spans="1:8">
       <c r="A6" s="4">
         <v>103</v>
       </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:8">
+    <row r="7" s="4" customFormat="1" ht="148.5" spans="1:8">
       <c r="A7" s="4">
         <v>104</v>
       </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:9">
+    <row r="8" s="4" customFormat="1" ht="148.5" spans="1:9">
       <c r="A8" s="4">
         <v>105</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:9">
+    <row r="9" s="4" customFormat="1" ht="148.5" spans="1:9">
       <c r="A9" s="4">
         <v>106</v>
       </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:8">
+    <row r="10" s="4" customFormat="1" ht="148.5" spans="1:8">
       <c r="A10" s="4">
         <v>107</v>
       </c>
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:8">
+    <row r="11" s="4" customFormat="1" ht="33" spans="1:8">
       <c r="A11" s="4">
         <v>201</v>
       </c>
       <c r="C11" s="4">
         <v>14</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="9">
         <v>45783</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
+      <c r="H11" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1"/>
@@ -1454,8 +1566,12 @@
     <row r="62" s="4" customFormat="1"/>
     <row r="63" s="4" customFormat="1"/>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H11" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SignIn!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SignIn!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +35,20 @@
     <author>WIN</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1.固定日期签到
+2.累计签到</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -50,32 +64,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0 代表活动未开启
+1 代表活动已开启</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>签到ID</t>
   </si>
   <si>
+    <t>签到类型</t>
+  </si>
+  <si>
     <t>签到日期</t>
   </si>
   <si>
-    <t>累计签到天数</t>
-  </si>
-  <si>
     <t>奖励内容</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>生效时间</t>
-  </si>
-  <si>
-    <t>过期时间</t>
+    <t>刷新时间</t>
   </si>
   <si>
     <t>签到活动状态</t>
@@ -84,22 +109,19 @@
     <t>ID</t>
   </si>
   <si>
+    <t>signInType</t>
+  </si>
+  <si>
     <t>signInDay</t>
   </si>
   <si>
-    <t>accumulatedSignInDays</t>
-  </si>
-  <si>
     <t>rewardType</t>
   </si>
   <si>
     <t>signInDesc</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
+    <t>refreshTime</t>
   </si>
   <si>
     <t>status</t>
@@ -111,109 +133,36 @@
     <t>string</t>
   </si>
   <si>
-    <t>周一</t>
-  </si>
-  <si>
-    <t>VIP0:1001:100,
-VIP1:1001:200,
-VIP2:1001:200,
-VIP3:1001:300,
-VIP4:1001:300,
-VIP5:1001:400,
-VIP6:1001:400,
-VIP7:1001:500,
-VIP8:1001:500</t>
-  </si>
-  <si>
-    <t>周一签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周一00:00:00</t>
-  </si>
-  <si>
-    <t>每周一23:59:59</t>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>周二</t>
-  </si>
-  <si>
-    <t>周二签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周二00:00:00</t>
-  </si>
-  <si>
-    <t>每周二23:59:59</t>
-  </si>
-  <si>
-    <t>周三</t>
-  </si>
-  <si>
-    <t>周三签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周三00:00:00</t>
-  </si>
-  <si>
-    <t>每周三23:59:59</t>
-  </si>
-  <si>
-    <t>周四</t>
-  </si>
-  <si>
-    <t>周四签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周四00:00:00</t>
-  </si>
-  <si>
-    <t>每周四23:59:59</t>
-  </si>
-  <si>
-    <t>周五</t>
-  </si>
-  <si>
-    <t>周五签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周五00:00:00</t>
-  </si>
-  <si>
-    <t>每周五23:59:59</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>周六签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周六00:00:00</t>
-  </si>
-  <si>
-    <t>每周六23:59:59</t>
-  </si>
-  <si>
-    <t>周日</t>
-  </si>
-  <si>
-    <t>周日签到领取{0}金币</t>
-  </si>
-  <si>
-    <t>每周日00:00:00</t>
-  </si>
-  <si>
-    <t>每周日23:59:59</t>
-  </si>
-  <si>
-    <t>:1001:1500,
-:6001:3</t>
-  </si>
-  <si>
-    <t>累计签到14天领取领取{0}金币、补签劵{0}张</t>
+    <t>VIP0:10001:100,
+VIP1:10001:200,
+VIP2:10001:200,
+VIP3:10001:300,
+VIP4:10001:300,
+VIP5:10001:400,
+VIP6:10001:400,
+VIP7:10001:500,
+VIP8:10001:500</t>
+  </si>
+  <si>
+    <t>第一天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第二天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第三天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第四天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第五天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第六天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>第七天签到领取{0}金币</t>
   </si>
 </sst>
 </file>
@@ -226,7 +175,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +338,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -880,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,10 +862,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1227,32 +1184,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="39.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="15.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,245 +1230,217 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="4" s="4" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A6" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="148.5" spans="1:8">
-      <c r="A4" s="4">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    <row r="7" s="4" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="148.5" spans="1:8">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="148.5" spans="1:8">
+      <c r="A9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="148.5" spans="1:8">
-      <c r="A5" s="4">
-        <v>102</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="148.5" spans="1:8">
-      <c r="A6" s="4">
-        <v>103</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="148.5" spans="1:8">
-      <c r="A7" s="4">
-        <v>104</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="148.5" spans="1:9">
-      <c r="A8" s="4">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="148.5" spans="1:9">
-      <c r="A9" s="4">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="148.5" spans="1:8">
-      <c r="A10" s="4">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="33" spans="1:8">
-      <c r="A11" s="4">
-        <v>201</v>
-      </c>
-      <c r="C11" s="4">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45783</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="11" s="4" customFormat="1"/>
     <row r="12" s="4" customFormat="1"/>
     <row r="13" s="4" customFormat="1"/>
     <row r="14" s="4" customFormat="1"/>
@@ -1564,9 +1492,8 @@
     <row r="60" s="4" customFormat="1"/>
     <row r="61" s="4" customFormat="1"/>
     <row r="62" s="4" customFormat="1"/>
-    <row r="63" s="4" customFormat="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H11" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G10" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SignIn!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SignIn!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,26 +64,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0 代表活动未开启
-1 代表活动已开启</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>签到ID</t>
   </si>
@@ -103,9 +89,6 @@
     <t>刷新时间</t>
   </si>
   <si>
-    <t>签到活动状态</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -122,9 +105,6 @@
   </si>
   <si>
     <t>refreshTime</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>int</t>
@@ -175,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,11 +318,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1184,31 +1159,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="12.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,57 +1201,48 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="148.5" spans="1:7">
+    <row r="4" s="4" customFormat="1" ht="148.5" spans="1:6">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1288,19 +1253,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="148.5" spans="1:7">
+    <row r="5" s="4" customFormat="1" ht="148.5" spans="1:6">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1311,19 +1273,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="148.5" spans="1:7">
+    <row r="6" s="4" customFormat="1" ht="148.5" spans="1:6">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1334,19 +1293,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="148.5" spans="1:7">
+    <row r="7" s="4" customFormat="1" ht="148.5" spans="1:6">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1357,19 +1313,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="148.5" spans="1:8">
+    <row r="8" s="4" customFormat="1" ht="148.5" spans="1:7">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -1380,20 +1333,17 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="148.5" spans="1:8">
+    <row r="9" s="4" customFormat="1" ht="148.5" spans="1:7">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -1404,20 +1354,17 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
-    <row r="10" s="4" customFormat="1" ht="148.5" spans="1:7">
+    <row r="10" s="4" customFormat="1" ht="148.5" spans="1:6">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -1428,16 +1375,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1"/>
@@ -1493,7 +1437,7 @@
     <row r="61" s="4" customFormat="1"/>
     <row r="62" s="4" customFormat="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G10" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F10" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -99,7 +99,7 @@
             <charset val="134"/>
           </rPr>
           <t>格式：
-[{vip等级键:vip等级,道具键:道具ID,数量键;数量},{vip等级键:vip等级,道具键:道具ID,数量键;数量},···]
+[{vip等级键:vip等级,货币键:货币ID,数量键;数量},{vip等级键:vip等级,货币键:货币ID,数量键;数量},···]
 vip0代表普通用户(非vip)</t>
         </r>
       </text>
@@ -375,12 +375,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1229,7 +1229,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -76,7 +76,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-7个签到日期对应现实中的7天</t>
+7个签到日期对应现实中的7天
+以玩家注册作为第一天</t>
         </r>
       </text>
     </comment>
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-零点刷新</t>
+代表可以签到当前日期的时刻</t>
         </r>
       </text>
     </comment>
@@ -375,20 +376,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>

--- a/00文审机数值/Q-签到表.xlsx
+++ b/00文审机数值/Q-签到表.xlsx
@@ -76,8 +76,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-7个签到日期对应现实中的7天
-以玩家注册作为第一天</t>
+7个签到日期对应现实中的7天</t>
         </r>
       </text>
     </comment>
@@ -100,12 +99,12 @@
             <charset val="134"/>
           </rPr>
           <t>格式：
-[{vip等级键:vip等级,货币键:货币ID,数量键;数量},{vip等级键:vip等级,货币键:货币ID,数量键;数量},···]
-vip0代表普通用户(非vip)</t>
+[{货币键:货币ID,数量键;数量]
+最终玩家获得的金币等于基础奖励×vip签到奖励加成</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-代表可以签到当前日期的时刻</t>
+零点刷新</t>
         </r>
       </text>
     </comment>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>签到ID</t>
   </si>
@@ -143,7 +142,7 @@
     <t>签到日期</t>
   </si>
   <si>
-    <t>奖励内容</t>
+    <t>基础奖励内容</t>
   </si>
   <si>
     <t>描述</t>
@@ -176,25 +175,43 @@
     <t>string</t>
   </si>
   <si>
-    <t>[{"viplv":"vip0","item":10001,"num":100},{"viplv":"vip1","item":10001,"num":200},{"viplv":"vip2","item":10001,"num":200},{"viplv":"vip3","item":10001,"num":300},{"viplv":"vip4","item":10001,"num":300},{"viplv":"vip5","item":10001,"num":400},{"viplv":"vip6","item":10001,"num":400},{"viplv":"vip7","item":10001,"num":500},{"viplv":"vip8","item":10001,"num":500}]</t>
+    <t>[{"item":10001,"num":100}]</t>
   </si>
   <si>
     <t>第一天签到领取{0}金币</t>
   </si>
   <si>
+    <t>[{"item":10001,"num":110}]</t>
+  </si>
+  <si>
     <t>第二天签到领取{0}金币</t>
   </si>
   <si>
+    <t>[{"item":10001,"num":120}]</t>
+  </si>
+  <si>
     <t>第三天签到领取{0}金币</t>
   </si>
   <si>
+    <t>[{"item":10001,"num":150}]</t>
+  </si>
+  <si>
     <t>第四天签到领取{0}金币</t>
   </si>
   <si>
+    <t>[{"item":10001,"num":160}]</t>
+  </si>
+  <si>
     <t>第五天签到领取{0}金币</t>
   </si>
   <si>
+    <t>[{"item":10001,"num":170}]</t>
+  </si>
+  <si>
     <t>第六天签到领取{0}金币</t>
+  </si>
+  <si>
+    <t>[{"item":10001,"num":200}]</t>
   </si>
   <si>
     <t>第七天签到领取{0}金币</t>
@@ -378,18 +395,18 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1230,7 +1247,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1339,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1359,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1379,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1399,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1420,10 +1437,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1441,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
